--- a/output/google_maps_data_Transportasi_Gunungkidul.xlsx
+++ b/output/google_maps_data_Transportasi_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>-7.966948</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.966948</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.618612</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terminal+Dhaksinarga+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb4a0659cab55:0xba07f50b57ebb45a!8m2!3d-7.9669477!4d110.6186121!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmREUlhZbkZuUlJBQuABAPoBBAgmEEU!16s%2Fg%2F11b64bh1xm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terminal+Dhaksinarga+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb4a0659cab55:0xba07f50b57ebb45a!8m2!3d-7.9669477!4d110.6186121!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmREUlhZbkZuUlJBQuABAPoBBAgmEEU!16s%2Fg%2F11b64bh1xm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -544,25 +538,24 @@
           <t>0859-2227-1926</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-7.932276</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.932276</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.513465</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ambulance+PCNU+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a53adfbc03cd9:0xab2e0ad61873e309!8m2!3d-7.9322759!4d110.5134647!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2NHRkxXRTlSRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11sh22114d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ambulance+PCNU+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a53adfbc03cd9:0xab2e0ad61873e309!8m2!3d-7.9322759!4d110.5134647!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2NHRkxXRTlSRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11sh22114d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -585,25 +578,24 @@
           <t>0878-3942-5454</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>-7.975797</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.975797</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.598905</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO.+Murni+Jaya/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb36c1e39a1bf:0x106332c0cef69a4c!8m2!3d-7.9757968!4d110.5989051!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGRXRjZSV1ozRUFF4AEA-gEECAAQMg!16s%2Fg%2F11g6xpscmp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO.+Murni+Jaya/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb36c1e39a1bf:0x106332c0cef69a4c!8m2!3d-7.9757968!4d110.5989051!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGRXRjZSV1ozRUFF4AEA-gEECAAQMg!16s%2Fg%2F11g6xpscmp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -626,25 +618,24 @@
           <t>0812-8552-4140</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>-7.938584</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.938584</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.639229</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wijaya+Trans+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4bd373943c4b:0x61ad52ad43a101f8!8m2!3d-7.9385841!4d110.6392294!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWMzTjJhRTUzRUFF4AEA-gEECGAQDQ!16s%2Fg%2F11h21__ky5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wijaya+Trans+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4bd373943c4b:0x61ad52ad43a101f8!8m2!3d-7.9385841!4d110.6392294!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWMzTjJhRTUzRUFF4AEA-gEECGAQDQ!16s%2Fg%2F11h21__ky5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -667,25 +658,24 @@
           <t>0821-3702-8656</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>-7.913711</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.913711</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.590609</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Travel+Jepara-jogja-gunung+kidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4d0e31bc27af:0xe87e10bb76ac3c9c!8m2!3d-7.9137107!4d110.5906086!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRM09IRnVOV04zRUFF4AEA-gEECAAQGA!16s%2Fg%2F11wbhnp9cs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Travel+Jepara-jogja-gunung+kidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4d0e31bc27af:0xe87e10bb76ac3c9c!8m2!3d-7.9137107!4d110.5906086!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRM09IRnVOV04zRUFF4AEA-gEECAAQGA!16s%2Fg%2F11wbhnp9cs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -708,25 +698,24 @@
           <t>0813-2950-0169</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.908641</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.908641</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.6109</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sewa+Mobil+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4d261b701171:0xb6834b0e095a9759!8m2!3d-7.9086411!4d110.6109001!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rtm9p7_r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sewa+Mobil+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4d261b701171:0xb6834b0e095a9759!8m2!3d-7.9086411!4d110.6109001!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rtm9p7_r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -749,25 +738,24 @@
           <t>0882-3365-2307</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>-7.87064</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.87064</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.511247</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/jasa+angkut+gunung+kidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a530039925155:0x9f0778b47b11fed0!8m2!3d-7.87064!4d110.5112471!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQx0YXhpX3NlcnZpY2XgAQA!16s%2Fg%2F11vrtrhl7t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/jasa+angkut+gunung+kidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a530039925155:0x9f0778b47b11fed0!8m2!3d-7.87064!4d110.5112471!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQx0YXhpX3NlcnZpY2XgAQA!16s%2Fg%2F11vrtrhl7t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -790,25 +778,24 @@
           <t>0822-4219-3330</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-8.037575</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.037575</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.577459</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Aji+Transportasi/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb1000c1045a5:0x4009a131e6c17153!8m2!3d-8.037575!4d110.577459!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMmEwa3pYMFpuRUFF4AEA-gEECAcQFA!16s%2Fg%2F11y3dpv6w7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Aji+Transportasi/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb1000c1045a5:0x4009a131e6c17153!8m2!3d-8.037575!4d110.577459!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMmEwa3pYMFpuRUFF4AEA-gEECAcQFA!16s%2Fg%2F11y3dpv6w7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -831,25 +818,24 @@
           <t>0817-4123-483</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>-7.984267</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.984267</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.594961</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kris_Transport/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb365c33d832d:0xd3aa38f1fd09c21e!8m2!3d-7.9842674!4d110.5949607!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaE4yOWxjWFIzUlJBQuABAPoBBAgAECo!16s%2Fg%2F11rwsvx36y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kris_Transport/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb365c33d832d:0xd3aa38f1fd09c21e!8m2!3d-7.9842674!4d110.5949607!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaE4yOWxjWFIzUlJBQuABAPoBBAgAECo!16s%2Fg%2F11rwsvx36y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -872,25 +858,24 @@
           <t>0895-3222-11546</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.98673</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.98673</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.577866</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mega+Putera+Transport/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb327fa06b0cd:0x4964af8881531b42!8m2!3d-7.9867297!4d110.577866!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMWNFNVVXa3hCRUFF4AEA-gEECAAQMg!16s%2Fg%2F11m_gc3jmb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mega+Putera+Transport/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb327fa06b0cd:0x4964af8881531b42!8m2!3d-7.9867297!4d110.577866!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMWNFNVVXa3hCRUFF4AEA-gEECAAQMg!16s%2Fg%2F11m_gc3jmb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -913,25 +898,24 @@
           <t>0821-6124-2762</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.3</v>
+        <v>-7.951776</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.951776</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.587639</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Maju+Lancar+Autobus+Company/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3348f4103f3:0xe47ac98845ee2320!8m2!3d-7.9517759!4d110.5876385!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELYnVzX2NvbXBhbnmaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJjRXBFYUZWM0VBReABAPoBBQinARBH!16s%2Fg%2F1pzrhlrry?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -946,25 +930,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-8.014818</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.014818</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.637898</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Motor+MbahBejik/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5d94f7a993f:0x4195164d0e9113f2!8m2!3d-8.0148177!4d110.6378979!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWGNuTkVMVFZuUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11r56v51s0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Motor+MbahBejik/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5d94f7a993f:0x4195164d0e9113f2!8m2!3d-8.0148177!4d110.6378979!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWGNuTkVMVFZuUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11r56v51s0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -987,25 +970,24 @@
           <t>0819-0422-0203</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>-7.977638</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.977638</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.616853</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/EKA+JAYA+TRANS+rental%2Fcarter/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb362a043ac95:0xf12e5301b20353cb!8m2!3d-7.9776384!4d110.6168532!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ggz8fd42?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/EKA+JAYA+TRANS+rental%2Fcarter/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb362a043ac95:0xf12e5301b20353cb!8m2!3d-7.9776384!4d110.6168532!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ggz8fd42?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1024,25 +1006,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>-8.001256</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.001256</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.65097</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terminal+Munggi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb445bc4b4811:0x4cf7a07e7738263!8m2!3d-8.0012561!4d110.6509703!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11fy95kxlz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terminal+Munggi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb445bc4b4811:0x4cf7a07e7738263!8m2!3d-8.0012561!4d110.6509703!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11fy95kxlz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1061,25 +1042,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.9636</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.9636</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.602575</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BC+GBGK+(GRAB+BIKERS+GUNUNGKIDUL)/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3007e313dff:0x2f5ff9fa6744ba1d!8m2!3d-7.9635996!4d110.6025748!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ldwl15s0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BC+GBGK+(GRAB+BIKERS+GUNUNGKIDUL)/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3007e313dff:0x2f5ff9fa6744ba1d!8m2!3d-7.9635996!4d110.6025748!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ldwl15s0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1098,25 +1078,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>3.8</v>
+        <v>-8.001199</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.001199</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.65095</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terminal+Semanu/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb445bc5677fb:0xca7e0bf5d5ae3c32!8m2!3d-8.0011994!4d110.6509495!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgERYnVzX3RpY2tldF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlBlVGd0ZG5aM1JSQULgAQD6AQQIABAQ!16s%2Fg%2F11g6vq2z05?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terminal+Semanu/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb445bc5677fb:0xca7e0bf5d5ae3c32!8m2!3d-8.0011994!4d110.6509495!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgERYnVzX3RpY2tldF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlBlVGd0ZG5aM1JSQULgAQD6AQQIABAQ!16s%2Fg%2F11g6vq2z05?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1139,25 +1118,24 @@
           <t>0878-3969-4200</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>-7.987503</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.987503</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.650974</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ellykebo+transport/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb532e5b11fbb:0xb4599e3925bc3b2f!8m2!3d-7.987503!4d110.6509736!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeFowOVRURFpuUlJBQuABAPoBBAgAECM!16s%2Fg%2F11q1t0hpn1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ellykebo+transport/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb532e5b11fbb:0xb4599e3925bc3b2f!8m2!3d-7.987503!4d110.6509736!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeFowOVRURFpuUlJBQuABAPoBBAgAECM!16s%2Fg%2F11q1t0hpn1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1180,25 +1158,24 @@
           <t>0812-2551-6900</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-8.016087000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.016087000000001</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.663672</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RIZQI+MULIA+TRANSPORTATION/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb52fd1547c93:0x8473424dfe492d01!8m2!3d-8.0160875!4d110.6636719!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11kptllpfd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RIZQI+MULIA+TRANSPORTATION/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb52fd1547c93:0x8473424dfe492d01!8m2!3d-8.0160875!4d110.6636719!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11kptllpfd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1221,25 +1198,24 @@
           <t>0878-3993-3223</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>-7.952092</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.952092</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.587529</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rahma+Wisata/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3348738eb99:0x19445564b46e3e89!8m2!3d-7.9520919!4d110.5875291!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtidXNfY29tcGFueeABAA!16s%2Fg%2F11c1wjm3sq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rahma+Wisata/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3348738eb99:0x19445564b46e3e89!8m2!3d-7.9520919!4d110.5875291!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtidXNfY29tcGFueeABAA!16s%2Fg%2F11c1wjm3sq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1263,22 +1239,21 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-7.863562</v>
+      </c>
       <c r="G21" t="n">
-        <v>-7.863562</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.726766</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tour+%26+travel+gunungkidul/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a3513c24d63f5:0x6b116985ed5ae841!8m2!3d-7.8635618!4d110.7267664!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11j4w5r5wj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1297,25 +1272,24 @@
           <t>0822-2665-0842</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>-7.98189</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.98189</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.596713</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J%26T+CARGO+WNO+001J/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3000a386af9:0x40e87278666934c6!8m2!3d-7.9818897!4d110.5967129!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTllhbkZ1YzB0UkVBReABAPoBBAgAEDM!16s%2Fg%2F11vp_c4jys?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/J%26T+CARGO+WNO+001J/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3000a386af9:0x40e87278666934c6!8m2!3d-7.9818897!4d110.5967129!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTllhbkZ1YzB0UkVBReABAPoBBAgAEDM!16s%2Fg%2F11vp_c4jys?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1338,25 +1312,24 @@
           <t>0877-2851-0415</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.978915</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.978915</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.600129</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mutiara+Jati+2/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3005d9b27a7:0x202c1c34db6b2dc4!8m2!3d-7.9789151!4d110.600129!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11w7frr4_2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mutiara+Jati+2/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3005d9b27a7:0x202c1c34db6b2dc4!8m2!3d-7.9789151!4d110.600129!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11w7frr4_2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1383,25 +1356,24 @@
           <t>0812-2532-1730</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-8.061422</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.061422</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.620518</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Garasi+Retno+Putro+Trans/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7dde0872a45:0xd689b47603a23a7b!8m2!3d-8.0614218!4d110.6205176!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2EyVnhTMVYzRUFF4AEA-gEECAAQGg!16s%2Fg%2F11h5kytgw7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Garasi+Retno+Putro+Trans/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7dde0872a45:0xd689b47603a23a7b!8m2!3d-8.0614218!4d110.6205176!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2EyVnhTMVYzRUFF4AEA-gEECAAQGg!16s%2Fg%2F11h5kytgw7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1424,25 +1396,24 @@
           <t>(0274) 391674</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>3.6</v>
+        <v>-7.972186</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.972186</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.593127</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO.+Rawit+Mulyo/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3404719e529:0xba1a74c75bf4d39!8m2!3d-7.9721861!4d110.5931271!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELYnVzX2NoYXJ0ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNNelZ4WXpSQlJSQULgAQD6AQQIABAV!16s%2Fg%2F1pzvgdfkn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO.+Rawit+Mulyo/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3404719e529:0xba1a74c75bf4d39!8m2!3d-7.9721861!4d110.5931271!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELYnVzX2NoYXJ0ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNNelZ4WXpSQlJSQULgAQD6AQQIABAV!16s%2Fg%2F1pzvgdfkn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1466,22 +1437,21 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-7.830538</v>
+      </c>
       <c r="G26" t="n">
-        <v>-7.830538</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.701231</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gudang+Bubble+Wrap+Gunungkidul+Supono+Putro/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a497a49c939a9:0xeed3eb123f8073de!8m2!3d-7.8305378!4d110.7012314!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11wfhbcdy4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1496,25 +1466,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>-7.982796</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.982796</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.607365</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO.+Djangkar+Bumi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3abed7dfda3:0xf1eca284fc93a81b!8m2!3d-7.9827962!4d110.6073653!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQlidXNfZGVwb3TgAQA!16s%2Fg%2F11j0qj1qfx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO.+Djangkar+Bumi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3abed7dfda3:0xf1eca284fc93a81b!8m2!3d-7.9827962!4d110.6073653!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQlidXNfZGVwb3TgAQA!16s%2Fg%2F11j0qj1qfx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1538,22 +1507,21 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-8.009925000000001</v>
+      </c>
       <c r="G28" t="n">
-        <v>-8.009925000000001</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.597602</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jk+tenda+%26+transportasi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3f440081a65:0x83f3c1f6fb7d6a41!8m2!3d-8.0099249!4d110.5976024!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11srs36_63?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1573,22 +1541,21 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-8.025198</v>
+      </c>
       <c r="G29" t="n">
-        <v>-8.025198</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.586454</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Travel+24jam/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3896e5de193:0x828a0477f4edb9d!8m2!3d-8.0251982!4d110.5864538!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11s4hp9ckf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1607,25 +1574,24 @@
           <t>0811-2836-637</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>3.5</v>
+        <v>-7.966609</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.966609</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.602597</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LION+PARCEL+PUSAT+GUNUNG+KIDUL/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3bf9907a3bb:0x7ac6321d6f80d0ed!8m2!3d-7.9666085!4d110.6025974!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBPR1JNYzFkUkVBReABAPoBBAgAEDw!16s%2Fg%2F11h1j_ngl0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/LION+PARCEL+PUSAT+GUNUNG+KIDUL/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3bf9907a3bb:0x7ac6321d6f80d0ed!8m2!3d-7.9666085!4d110.6025974!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBPR1JNYzFkUkVBReABAPoBBAgAEDw!16s%2Fg%2F11h1j_ngl0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1648,25 +1614,24 @@
           <t>0859-6065-6800</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>-8.024327</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.024327</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.582291</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hery+Tour+%26+Travel/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb31bd95d1611:0x73de6eceaa09ddbb!8m2!3d-8.0243267!4d110.5822913!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELYnVzX2NoYXJ0ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXlaM0l0UzFoUkVBReABAPoBBAgAEBo!16s%2Fg%2F11fcqjb1fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hery+Tour+%26+Travel/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb31bd95d1611:0x73de6eceaa09ddbb!8m2!3d-8.0243267!4d110.5822913!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELYnVzX2NoYXJ0ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXlaM0l0UzFoUkVBReABAPoBBAgAEBo!16s%2Fg%2F11fcqjb1fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1693,25 +1658,24 @@
           <t>0813-2779-0707</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.9</v>
+        <v>-7.950484</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.950484</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.586498</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PT.+LINTAS+NUSANTARA+PERDANA+(LNP)+WONOSARI/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3527cd7a9db:0xc5f5570799e3fde2!8m2!3d-7.950484!4d110.5864983!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEPY291cmllcl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TYTBwUE9EVjNSUkFC4AEA-gEECAAQIA!16s%2Fg%2F11fkl9bw0f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PT.+LINTAS+NUSANTARA+PERDANA+(LNP)+WONOSARI/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3527cd7a9db:0xc5f5570799e3fde2!8m2!3d-7.950484!4d110.5864983!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEPY291cmllcl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TYTBwUE9EVjNSUkFC4AEA-gEECAAQIA!16s%2Fg%2F11fkl9bw0f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1731,22 +1695,21 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-8.097099999999999</v>
+      </c>
       <c r="G33" t="n">
-        <v>-8.097099999999999</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.616901</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Azkiya+Transportasi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb71c94b56781:0x6e3ff71992804289!8m2!3d-8.0971001!4d110.6169008!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11j94pdf15?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1761,25 +1724,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>-7.911332</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.911332</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.60939</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jembatan+Oyo+Kedungkeris/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4c8695918b65:0xaa2d003d2d45862f!8m2!3d-7.911332!4d110.60939!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEGYnJpZGdlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IY1hKeVRWQjNFQUXgAQD6AQQIABAq!16s%2Fg%2F11fzfdptps?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1794,25 +1756,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-8.00807</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.00807</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.566259</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kali+Ngingas/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3c9fefd1363:0xb035bc4644645a76!8m2!3d-8.0080703!4d110.5662587!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQpyaXZlcl9wb3J04AEA!16s%2Fg%2F11h7hz2qnn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1832,22 +1793,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.966899</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.966899</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.618662</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERWAKILAN+AGEN+MURNI+JAYA+TERMINAL+WONOSARI/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5bb8dc494c9:0x4845642190a359bd!8m2!3d-7.9668986!4d110.6186623!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11t27hgxn4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1866,25 +1826,24 @@
           <t>0819-0422-1015</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.9</v>
+        <v>-7.978836</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.978836</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.608349</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bop's+travel/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3f3e38e4539:0x36d4d8e2c35af01b!8m2!3d-7.9788364!4d110.6083486!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgENdHJhdmVsX2FnZW5jeeABAA!16s%2Fg%2F11fmxqnbwn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bop's+travel/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3f3e38e4539:0x36d4d8e2c35af01b!8m2!3d-7.9788364!4d110.6083486!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgENdHJhdmVsX2FnZW5jeeABAA!16s%2Fg%2F11fmxqnbwn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1907,25 +1866,24 @@
           <t>0812-2562-8982</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.7</v>
+        <v>-8.067111000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.067111000000001</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.622971</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AKBAR+Tour+%26+Travel+%7C+Tiket+Pesawat,+Kapal+Laut,+Sewa+BUS+dan+Mobil+Travel/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb36860a82a59:0xefc94d5ff84973e1!8m2!3d-8.0671109!4d110.6229705!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEVYWlybGluZV90aWNrZXRfYWdlbmN5mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU53Y1dGRUxYVjNSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11f0l17b9c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/AKBAR+Tour+%26+Travel+%7C+Tiket+Pesawat,+Kapal+Laut,+Sewa+BUS+dan+Mobil+Travel/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb36860a82a59:0xefc94d5ff84973e1!8m2!3d-8.0671109!4d110.6229705!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEVYWlybGluZV90aWNrZXRfYWdlbmN5mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU53Y1dGRUxYVjNSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11f0l17b9c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1944,25 +1902,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>-8.003351</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.003351</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.567733</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kali+Soka/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3ed7418bedd:0xb3a6de40eaef5b3f!8m2!3d-8.0033515!4d110.5677333!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReWVtOTJjRjkzUlJBQuABAPoBBAgAEB8!16s%2Fg%2F11h7j24gvz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kali+Soka/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3ed7418bedd:0xb3a6de40eaef5b3f!8m2!3d-8.0033515!4d110.5677333!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReWVtOTJjRjkzUlJBQuABAPoBBAgAEB8!16s%2Fg%2F11h7j24gvz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1982,22 +1939,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-8.040570000000001</v>
+      </c>
       <c r="G40" t="n">
-        <v>-8.040570000000001</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.572198</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Arby+Transportasi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb100794bd435:0xa9cb0d61b063c070!8m2!3d-8.04057!4d110.5721975!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11vk8nq70q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2017,22 +1973,21 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-7.940044</v>
+      </c>
       <c r="G41" t="n">
-        <v>-7.940044</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.578474</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+transportasi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4d38b17702d3:0xd86f2d1577f327d4!8m2!3d-7.9400442!4d110.5784735!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11mw5kh9dr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2051,25 +2006,24 @@
           <t>0831-1792-7981</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.3</v>
+        <v>-7.998119</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.998119</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.653015</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pangkalan+Ojek+Offline+Munggi+Pasar+Semanu/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb54250e1e25d:0x58e375a625b6c6c5!8m2!3d-7.9981189!4d110.6530151!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11j0r7mvp8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2092,25 +2046,24 @@
           <t>0857-2868-0129</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.4</v>
+        <v>-7.955659</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.955659</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.64911</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J%26T+Cargo+Karangmojo+WNO003A/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5df07119fe9:0x80f6313b47644f66!8m2!3d-7.9556587!4d110.64911!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTVObEF0TFdWUkVBReABAPoBBAgAED0!16s%2Fg%2F11y369snrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/J%26T+Cargo+Karangmojo+WNO003A/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5df07119fe9:0x80f6313b47644f66!8m2!3d-7.9556587!4d110.64911!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTVObEF0TFdWUkVBReABAPoBBAgAED0!16s%2Fg%2F11y369snrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2129,25 +2082,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.3</v>
+        <v>-7.992725</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.992725</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.579399</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Kali+Wareng/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb382b3b51465:0xe7ca5d1636e849f9!8m2!3d-7.992725!4d110.5793992!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWRtUjVUMmhuUlJBQuABAPoBBAgAECE!16s%2Fg%2F11n18zxqr3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Kali+Wareng/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb382b3b51465:0xe7ca5d1636e849f9!8m2!3d-7.992725!4d110.5793992!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWRtUjVUMmhuUlJBQuABAPoBBAgAECE!16s%2Fg%2F11n18zxqr3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2170,25 +2122,24 @@
           <t>0852-2724-5020</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>-8.071681999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.071681999999999</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.575526</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JAM+%22Jasa+Angkut+Miri%22+Mbah.+Jo/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb100ad456051:0x14a9ffebaf480ef4!8m2!3d-8.0716823!4d110.5755259!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMGFtVllPRFJuUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11pv2xwbk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JAM+%22Jasa+Angkut+Miri%22+Mbah.+Jo/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb100ad456051:0x14a9ffebaf480ef4!8m2!3d-8.0716823!4d110.5755259!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMGFtVllPRFJuUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11pv2xwbk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2212,22 +2163,21 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-7.955291</v>
+      </c>
       <c r="G46" t="n">
-        <v>-7.955291</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.71224</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+transportasi+umum+Pak+no/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb569f5d50047:0x175bc7d2c6798434!8m2!3d-7.9552908!4d110.7122396!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wj6x5gd6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2246,25 +2196,24 @@
           <t>0877-0500-4429</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-8.016807</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.016807</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.636934</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yuni+sound+system/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5ba1c2ba759:0x81fcd9bc217db276!8m2!3d-8.0168066!4d110.6369343!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ptwzpvm1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yuni+sound+system/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5ba1c2ba759:0x81fcd9bc217db276!8m2!3d-8.0168066!4d110.6369343!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ptwzpvm1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2291,25 +2240,24 @@
           <t>0817-4123-483</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>-7.984812</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.984812</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.59507</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DeDe+RentCar/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3b081f4433b:0xf3eac37a1a8220a5!8m2!3d-7.9848123!4d110.5950695!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARFjYXJfcmVudGFsX2FnZW5jeeABAA!16s%2Fg%2F11gtz72gwp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DeDe+RentCar/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3b081f4433b:0xf3eac37a1a8220a5!8m2!3d-7.9848123!4d110.5950695!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARFjYXJfcmVudGFsX2FnZW5jeeABAA!16s%2Fg%2F11gtz72gwp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2333,22 +2281,21 @@
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>-8.070644</v>
+      </c>
       <c r="G49" t="n">
-        <v>-8.070644</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.587272</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/mas+hendri+transport+solution/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb14d2c856ed3:0x2fc5a7925a5be1b8!8m2!3d-8.0706437!4d110.5872715!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11l77hz7jm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2364,22 +2311,21 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>-7.974798</v>
+      </c>
       <c r="G50" t="n">
-        <v>-7.974798</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.591447</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Po+Murni+Jaya/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb30cb0664c31:0x47d8a879d4a5ec5c!8m2!3d-7.9747977!4d110.5914468!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11glfd51xg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2394,25 +2340,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>-7.978078</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.978078</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.583168</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madu+Putra/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3822e1f0731:0x7a8bbd908e1d1c2!8m2!3d-7.9780784!4d110.5831682!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtidXNfY29tcGFueeABAA!16s%2Fg%2F11h9143f33?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madu+Putra/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3822e1f0731:0x7a8bbd908e1d1c2!8m2!3d-7.9780784!4d110.5831682!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtidXNfY29tcGFueeABAA!16s%2Fg%2F11h9143f33?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2432,22 +2377,21 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>-7.970351</v>
+      </c>
       <c r="G52" t="n">
-        <v>-7.970351</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.590278</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Halte+Siraman/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb32cb38598d1:0x4e42d3b4f33fc25c!8m2!3d-7.9703512!4d110.5902778!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11g18jfzmp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2467,22 +2411,21 @@
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>-7.952552</v>
+      </c>
       <c r="G53" t="n">
-        <v>-7.952552</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.718006</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Arganta+Tour+%26+Travel+Gunung+Kidul/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bcba18ef3b66b:0xbfe3148a9fe966ac!8m2!3d-7.9525522!4d110.7180061!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11t7mmxr5p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2497,25 +2440,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-8.002582</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.002582</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.572258</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kedung+Gong/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3963abcaaaf:0x50bbab55321cae9f!8m2!3d-8.0025825!4d110.5722582!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRemVsbHRWakZuUlJBQuABAPoBBAgAEA0!16s%2Fg%2F11lm4fh1kc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kedung+Gong/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3963abcaaaf:0x50bbab55321cae9f!8m2!3d-8.0025825!4d110.5722582!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRemVsbHRWakZuUlJBQuABAPoBBAgAEA0!16s%2Fg%2F11lm4fh1kc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2535,22 +2477,21 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-8.017412999999999</v>
+      </c>
       <c r="G55" t="n">
-        <v>-8.017412999999999</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.608084</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/wandi+trans/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb30025ff67cb:0xfe2dc871996d0376!8m2!3d-8.0174128!4d110.6080838!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11vxj8539h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2565,25 +2506,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-8.086088999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.086088999999999</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.64624</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dheni+sanole/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7a764038fcf:0x6400d52fba4d647d!8m2!3d-8.0860887!4d110.6462402!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ft734by9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dheni+sanole/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7a764038fcf:0x6400d52fba4d647d!8m2!3d-8.0860887!4d110.6462402!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ft734by9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2603,22 +2543,21 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-8.033343</v>
+      </c>
       <c r="G57" t="n">
-        <v>-8.033343</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.647212</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RK+trans/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb700204c058d:0xe15f7394ecf5bb34!8m2!3d-8.0333428!4d110.6472115!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11w1vkts78?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2633,25 +2572,24 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-8.001186000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.001186000000001</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.65096</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Stanplat+Semanu/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5fd88f4d4b9:0xb10d721576eee8d6!8m2!3d-8.0011864!4d110.6509595!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11gslqj5l2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Stanplat+Semanu/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5fd88f4d4b9:0xb10d721576eee8d6!8m2!3d-8.0011864!4d110.6509595!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11gslqj5l2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2674,25 +2612,24 @@
           <t>0813-2546-8378</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-8.015613999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.015613999999999</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.632678</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jual+beli+segala+sapi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb500564819db:0x41a9511bc42a2129!8m2!3d-8.0156144!4d110.6326776!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11y310wjx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jual+beli+segala+sapi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb500564819db:0x41a9511bc42a2129!8m2!3d-8.0156144!4d110.6326776!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11y310wjx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2716,22 +2653,21 @@
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>-8.009164</v>
+      </c>
       <c r="G60" t="n">
-        <v>-8.009164</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.596697</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MEKAR+ALAM+BATAKO/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb32ac3322065:0xc19af42dfa557ac8!8m2!3d-8.0091637!4d110.5966966!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11slbr3pfk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2750,25 +2686,24 @@
           <t>0853-6766-5558</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>-8.012992000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.012992000000001</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.673373</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/APRILEO+TRANSPORT/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5782e53af8f:0x53fac2fdc7c25140!8m2!3d-8.0129919!4d110.6733734!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11n7j1jq_2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2788,22 +2723,21 @@
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>-7.978821</v>
+      </c>
       <c r="G62" t="n">
-        <v>-7.978821</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.607208</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kris+Ss/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb35abf75c7c9:0xb2471755b111d538!8m2!3d-7.9788206!4d110.6072081!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtidXNfY2hhcnRlcuABAA!16s%2Fg%2F11fcnm_f5x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2819,22 +2753,21 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>-8.051542</v>
+      </c>
       <c r="G63" t="n">
-        <v>-8.051542</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.601411</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Candikexpress/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb1884faf4503:0x91ec187ac10d92f2!8m2!3d-8.0515422!4d110.6014112!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rcdkwpzf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2853,25 +2786,24 @@
           <t>0882-3377-2819</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>-8.065394</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.065394</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.658307</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CB+RagatTipis/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7fb8db92831:0x689454433b6cdd33!8m2!3d-8.065394!4d110.658307!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11pkbw6pnq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CB+RagatTipis/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7fb8db92831:0x689454433b6cdd33!8m2!3d-8.065394!4d110.658307!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11pkbw6pnq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2890,25 +2822,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>-7.860414</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.860414</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.625003</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gentungan+kedungpoh+nglipar+gunungkidul/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a49bd78ca9413:0xde72434bf6164a17!8m2!3d-7.8604136!4d110.6250028!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQZicmlkZ2XgAQA!16s%2Fg%2F11kc2pp_3j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gentungan+kedungpoh+nglipar+gunungkidul/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a49bd78ca9413:0xde72434bf6164a17!8m2!3d-7.8604136!4d110.6250028!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQZicmlkZ2XgAQA!16s%2Fg%2F11kc2pp_3j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -2935,25 +2866,24 @@
           <t>0877-8899-5600</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>-7.98723</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.98723</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.591725</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Aiska+Azkadina/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb30f256eb79b:0x8e8c46685ad22379!8m2!3d-7.98723!4d110.5917251!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELdG91cl9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhjMHhUUmw5M1JSQULgAQD6AQQIABAn!16s%2Fg%2F11fm_0sbmz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Aiska+Azkadina/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb30f256eb79b:0x8e8c46685ad22379!8m2!3d-7.98723!4d110.5917251!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELdG91cl9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhjMHhUUmw5M1JSQULgAQD6AQQIABAn!16s%2Fg%2F11fm_0sbmz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2972,25 +2902,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>-8.037575</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.037575</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.578</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PENJUALAN+HONDA/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb10069528cad:0x2b007daa7913ab7f!8m2!3d-8.0375753!4d110.5780001!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONk5rNWlNRmhSRUFF4AEA-gEECAAQMg!16s%2Fg%2F11ldx5sqp9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PENJUALAN+HONDA/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb10069528cad:0x2b007daa7913ab7f!8m2!3d-8.0375753!4d110.5780001!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONk5rNWlNRmhSRUFF4AEA-gEECAAQMg!16s%2Fg%2F11ldx5sqp9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3014,22 +2943,21 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>-8.000919</v>
+      </c>
       <c r="G68" t="n">
-        <v>-8.000919</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.650436</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Avita+Trans/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb518f6077575:0x8abe1148d33a0eff!8m2!3d-8.0009194!4d110.650436!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F11qgg63dnp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3052,25 +2980,24 @@
           <t>0877-3892-1420</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.6</v>
+        <v>-7.99742</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.99742</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.564176</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Trijaya+Ban/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb253f72a0d29:0x6055df3138d88108!8m2!3d-7.9974197!4d110.5641759!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEJdGlyZV9zaG9w4AEA!16s%2Fg%2F11dxkxlt3d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Trijaya+Ban/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb253f72a0d29:0x6055df3138d88108!8m2!3d-7.9974197!4d110.5641759!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEJdGlyZV9zaG9w4AEA!16s%2Fg%2F11dxkxlt3d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3089,25 +3016,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>5</v>
+      </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>-7.976593</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.976593</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.585541</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+krapyak+winong/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3004f9949e5:0x27f86e4ca4d5beb9!8m2!3d-7.9765935!4d110.5855408!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJVTWpoaGNUQlJSUkFC4AEA-gEECAAQDQ!16s%2Fg%2F11y4_sqxcw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+krapyak+winong/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3004f9949e5:0x27f86e4ca4d5beb9!8m2!3d-7.9765935!4d110.5855408!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJVTWpoaGNUQlJSUkFC4AEA-gEECAAQDQ!16s%2Fg%2F11y4_sqxcw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3126,25 +3052,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>2.8</v>
+      </c>
       <c r="F71" t="n">
-        <v>2.8</v>
+        <v>-7.981763</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.981763</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.595902</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dawah+Gesang+Expedition/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb372f64e3b85:0x638bac1a487b51d4!8m2!3d-7.9817632!4d110.5959015!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARB0cnVja2luZ19jb21wYW554AEA!16s%2Fg%2F11gdkpnk_1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dawah+Gesang+Expedition/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb372f64e3b85:0x638bac1a487b51d4!8m2!3d-7.9817632!4d110.5959015!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARB0cnVja2luZ19jb21wYW554AEA!16s%2Fg%2F11gdkpnk_1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3167,25 +3092,24 @@
           <t>0878-3891-5722</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>-7.995115</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.995115</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.650519</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SumberJati_Transport+%26+Furniture/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb54b48b17407:0x37a750e6a6497777!8m2!3d-7.9951152!4d110.650519!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11fp9c60tq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3204,25 +3128,24 @@
           <t>0818-0275-5880</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.3</v>
+        <v>-8.009347999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.009347999999999</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.546489</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TOKO+MULTIPLE/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb241eeabbd9d:0x4d8c70d3d881c9d2!8m2!3d-8.0093477!4d110.5464892!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgETb2ZmaWNlX3N1cHBseV9zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeWRrNTJkR2xSUlJBQuABAPoBBAgAEC0!16s%2Fg%2F11c1xfrvy8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TOKO+MULTIPLE/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb241eeabbd9d:0x4d8c70d3d881c9d2!8m2!3d-8.0093477!4d110.5464892!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgETb2ZmaWNlX3N1cHBseV9zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeWRrNTJkR2xSUlJBQuABAPoBBAgAEC0!16s%2Fg%2F11c1xfrvy8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3242,22 +3165,21 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>-8.011797</v>
+      </c>
       <c r="G74" t="n">
-        <v>-8.011797</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.609418</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/home/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3001a41c701:0xd0526215fe9a45c4!8m2!3d-8.011797!4d110.6094175!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11wjq932cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3272,25 +3194,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>-8.072009</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.072009</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.602687</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Keinarra+Loundry%26Sewa+Ps3%2F4/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb135fdcccea9:0x761aeb1e64b77405!8m2!3d-8.0720088!4d110.6026867!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWUxVMXRjM0puUlJBQuABAPoBBAgAECY!16s%2Fg%2F11j8_j3v7c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Keinarra+Loundry%26Sewa+Ps3%2F4/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb135fdcccea9:0x761aeb1e64b77405!8m2!3d-8.0720088!4d110.6026867!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWUxVMXRjM0puUlJBQuABAPoBBAgAECY!16s%2Fg%2F11j8_j3v7c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3309,25 +3230,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.4</v>
+        <v>-7.967526</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.967526</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.603107</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Parkir/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb342ef353be3:0x1ae2637c0b15c3f1!8m2!3d-7.9675263!4d110.6031069!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELcGFya2luZ19sb3SaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxjR0pUVFRKM1JSQULgAQD6AQQIABA6!16s%2Fg%2F11g8wj1700?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3342,25 +3262,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>-8.032124</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.032124</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.585658</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Stasiun+Karang+Asem+(+elevated+)/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3b03dd226bf:0x7692613b1c693cdf!8m2!3d-8.0321244!4d110.5856579!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARNzdWJ1cmJhbl90cmFpbl9saW5l4AEA!16s%2Fg%2F11snngmnnr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Stasiun+Karang+Asem+(+elevated+)/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3b03dd226bf:0x7692613b1c693cdf!8m2!3d-8.0321244!4d110.5856579!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARNzdWJ1cmJhbl90cmFpbl9saW5l4AEA!16s%2Fg%2F11snngmnnr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3379,25 +3298,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>-7.973642</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.973642</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.609046</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RUMAH+DINAS+LAPAS+(+NO.4)/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb300601e3879:0xeaa21c34f23bdf16!8m2!3d-7.9736417!4d110.6090457!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11vptw4w2z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RUMAH+DINAS+LAPAS+(+NO.4)/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb300601e3879:0xeaa21c34f23bdf16!8m2!3d-7.9736417!4d110.6090457!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11vptw4w2z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3417,22 +3335,21 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>-8.056392000000001</v>
+      </c>
       <c r="G79" t="n">
-        <v>-8.056392000000001</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.560283</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Umpan+Mbah+GEBES+%22MG%22/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb15d81b2bbd3:0x2a3be913e025a2d!8m2!3d-8.0563916!4d110.5602834!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11sbmm07jd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3451,25 +3368,24 @@
           <t>(0274) 8554545</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>-8.030673999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.030673999999999</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.61669</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Caraka+Karya+Mandiri.+CV+-+Yogyakarta/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb15555ab117b:0x51cccab16735acba!8m2!3d-8.030674!4d110.61669!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARptb3ZpbmdfYW5kX3N0b3JhZ2Vfc2VydmljZeABAA!16s%2Fg%2F1pzsbxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Caraka+Karya+Mandiri.+CV+-+Yogyakarta/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb15555ab117b:0x51cccab16735acba!8m2!3d-8.030674!4d110.61669!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARptb3ZpbmdfYW5kX3N0b3JhZ2Vfc2VydmljZeABAA!16s%2Fg%2F1pzsbxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -3488,25 +3404,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.928553</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.928553</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.64989</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Parkir+Wisata+Goa+Pindul+Dan+Reservasi./@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4b3cfee43261:0x5714bb4c34e8d45a!8m2!3d-7.9285533!4d110.6498897!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEadG91cmlzdF9pbmZvcm1hdGlvbl9jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXRObVEyV2pkblJSQULgAQD6AQQIABAe!16s%2Fg%2F11gf0z7r0j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Parkir+Wisata+Goa+Pindul+Dan+Reservasi./@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4b3cfee43261:0x5714bb4c34e8d45a!8m2!3d-7.9285533!4d110.6498897!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEadG91cmlzdF9pbmZvcm1hdGlvbl9jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXRObVEyV2pkblJSQULgAQD6AQQIABAe!16s%2Fg%2F11gf0z7r0j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3526,22 +3441,21 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-8.004834000000001</v>
+      </c>
       <c r="G82" t="n">
-        <v>-8.004834000000001</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.556924</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mamase/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb31504e4f0ed:0x59926d9b7ffd2d1a!8m2!3d-8.0048337!4d110.5569235!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11tfw6mbck?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3557,22 +3471,21 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>-8.017401</v>
+      </c>
       <c r="G83" t="n">
-        <v>-8.017401</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.67451</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Roni+house/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb586bc50b97d:0x5d95bf5c3e35a3ec!8m2!3d-8.0174006!4d110.67451!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rv7_brrp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3587,25 +3500,24 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>-8.020163</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.020163</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.571559</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bok/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb37c2b2271b7:0x9947a8b3ebc7f100!8m2!3d-8.0201631!4d110.5715588!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQZicmlkZ2XgAQA!16s%2Fg%2F11srh_5mk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bok/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb37c2b2271b7:0x9947a8b3ebc7f100!8m2!3d-8.0201631!4d110.5715588!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQZicmlkZ2XgAQA!16s%2Fg%2F11srh_5mk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3625,22 +3537,21 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>-8.000470999999999</v>
+      </c>
       <c r="G85" t="n">
-        <v>-8.000470999999999</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.656876</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Prapatan+Sumur/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb52471be3469:0x92f9bd1f39f4ad8c!8m2!3d-8.0004706!4d110.6568755!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11l2w39d12?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3655,25 +3566,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.8</v>
+        <v>-7.964565</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.964565</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.621362</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sekretariat+HCG+(Honda+Civic+Gunungkidul)/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5fca5e81ce9:0x2af1413a7fd55c1f!8m2!3d-7.9645652!4d110.6213617!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgELcGFya2luZ19sb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxiSFJFUWxGbkVBReABAPoBBAgAEDE!16s%2Fg%2F11rzghjppd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3696,25 +3606,24 @@
           <t>0853-2611-7275</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.8</v>
+        <v>-7.963401</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.963401</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.599536</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Titipan+Spd+Motor+Pelajar+%22BAROKAH%22+Kepek+II/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb35184986633:0xd88cce2ef8303c6!8m2!3d-7.9634012!4d110.5995359!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARpwYXJraW5nX2xvdF9mb3JfbW90b3JjeWNsZeABAA!16s%2Fg%2F11gybxf1kt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3734,22 +3643,21 @@
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>-8.023059</v>
+      </c>
       <c r="G88" t="n">
-        <v>-8.023059</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.597178</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MB+TECK+AUDIO/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3000aac2cf5:0x251629742ea4391f!8m2!3d-8.0230588!4d110.5971779!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ybrzq7py?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3765,22 +3673,21 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>-8.019026</v>
+      </c>
       <c r="G89" t="n">
-        <v>-8.019026</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.670452</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Doni+jasa+angkut+panenan/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb50062806727:0xd06d1ceacdfede9b!8m2!3d-8.019026!4d110.6704515!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11y41gd78r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3796,22 +3703,21 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>-7.977259</v>
+      </c>
       <c r="G90" t="n">
-        <v>-7.977259</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.601873</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Nobita+Garage/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3768c4015d1:0xec2f6f23478935f3!8m2!3d-7.9772589!4d110.6018734!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11l6vpb703?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3827,22 +3733,21 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>-8.058254</v>
+      </c>
       <c r="G91" t="n">
-        <v>-8.058254</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.616281</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Wahyudi/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb10062c77d3d:0x811ea9309d33e55a!8m2!3d-8.058254!4d110.6162809!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11ltcy9g9h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3858,22 +3763,21 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>-8.009448000000001</v>
+      </c>
       <c r="G92" t="n">
-        <v>-8.009448000000001</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.563531</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%F0%9D%99%BF%F0%9D%9A%81%F0%9D%9A%83+.+%F0%9D%99%BA%F0%9D%9A%9E%F0%9D%9A%96%F0%9D%9A%99%F0%9D%9A%9E%F0%9D%9A%95/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb346d4923ef9:0xcba653e83d8cd470!8m2!3d-8.0094484!4d110.5635306!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11rz4ln94y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3893,22 +3797,21 @@
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>-7.972497</v>
+      </c>
       <c r="G93" t="n">
-        <v>-7.972497</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.604885</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sewa+mobil/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3824a8e1d19:0xd6e1ef6c7642381!8m2!3d-7.9724969!4d110.6048851!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11n5h4kpw6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3923,25 +3826,24 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.5</v>
+        <v>-7.891358</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.891358</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.547395</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Bunder/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4dbfbc5d7ff7:0xc2c9be8465187086!8m2!3d-7.8913576!4d110.5473951!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5VT1c4elVqSm5SUkFC4AEA-gEFCIUCEDw!16s%2Fg%2F11fzf3mrjs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Bunder/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7a4dbfbc5d7ff7:0xc2c9be8465187086!8m2!3d-7.8913576!4d110.5473951!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5VT1c4elVqSm5SUkFC4AEA-gEFCIUCEDw!16s%2Fg%2F11fzf3mrjs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3960,25 +3862,24 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.7</v>
+        <v>-7.990807</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.990807</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.585496</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemancingan+SORJEM/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3d0307de125:0xf7a6646291a80522!8m2!3d-7.9908066!4d110.5854962!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUVoyOTZkWFZuUlJBQuABAPoBBAgqEBs!16s%2Fg%2F11lpmk5zbk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemancingan+SORJEM/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb3d0307de125:0xf7a6646291a80522!8m2!3d-7.9908066!4d110.5854962!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWxaGiIYdHJhbnNwb3J0YXNpIGd1bnVuZ2tpZHVskgEKcml2ZXJfcG9ydJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUVoyOTZkWFZuUlJBQuABAPoBBAgqEBs!16s%2Fg%2F11lpmk5zbk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3998,22 +3899,21 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>-8.056228000000001</v>
+      </c>
       <c r="G96" t="n">
-        <v>-8.056228000000001</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.613302</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Home/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb10dd870777b:0x9f76c2da0745f422!8m2!3d-8.0562277!4d110.6133017!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11kj5b9xnk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4029,22 +3929,21 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>-7.981895</v>
+      </c>
       <c r="G97" t="n">
-        <v>-7.981895</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.646786</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Terminal+Truck+Malindo/@-8.0012561,110.3625792,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb5ebcb026bc9:0xf778fb63c0414fd0!8m2!3d-7.9818954!4d110.646786!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11s2jfbrh9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4064,22 +3963,21 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>-6.968667</v>
+      </c>
       <c r="G98" t="n">
-        <v>-6.968667</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.123495</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+Transportasi+JMS+Trans/@-6.968667,109.8351043,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0xaf24cc28c1b1e59f:0x96240f7948f0b33b!8m2!3d-6.968667!4d110.1234954!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11v3lnmdmw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4094,25 +3992,24 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>-8.059032999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.059032999999999</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.616554</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Kamling/@-8.0590335,110.3281625,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb16ee38ce963:0x9b2cdffaa5436bab!8m2!3d-8.0590335!4d110.6165536!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11s4rn0fpl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Kamling/@-8.0590335,110.3281625,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb16ee38ce963:0x9b2cdffaa5436bab!8m2!3d-8.0590335!4d110.6165536!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11s4rn0fpl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4132,22 +4029,21 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>-8.067572999999999</v>
+      </c>
       <c r="G100" t="n">
-        <v>-8.067572999999999</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.656146</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TEST+RIDE/@-8.0590335,110.3281625,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7a6c940c523:0x825cf43be9438e2!8m2!3d-8.067573!4d110.656146!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11sdb9bybn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4163,22 +4059,21 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>-8.054461999999999</v>
+      </c>
       <c r="G101" t="n">
-        <v>-8.054461999999999</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.627321</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+pak+sukir/@-8.0590335,110.3281625,11z/data=!4m10!1m2!2m1!1sTransportasi+Gunungkidul!3m6!1s0x2e7bb7003af2a363:0x20a14f6e852c3fbb!8m2!3d-8.0544623!4d110.6273211!15sChhUcmFuc3BvcnRhc2kgR3VudW5na2lkdWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11w1cl1k88?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
